--- a/grupos/2ARHM - Estadisticos 20202.xlsx
+++ b/grupos/2ARHM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="176">
   <si>
     <t>Materia</t>
   </si>
@@ -209,12 +209,12 @@
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
@@ -230,15 +230,45 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
     <t>ARROYO</t>
   </si>
   <si>
     <t>BAUTISTA</t>
   </si>
   <si>
+    <t>BASILIO</t>
+  </si>
+  <si>
+    <t>BUSTOS</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DEMUNER</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>GUERRA</t>
   </si>
   <si>
@@ -248,24 +278,102 @@
     <t>HUERTA</t>
   </si>
   <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>NAMORADO</t>
+  </si>
+  <si>
     <t>NEPOMUCENO</t>
   </si>
   <si>
     <t>OJEDA</t>
   </si>
   <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SANDRIA</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
     <t>NOMTALVO</t>
   </si>
   <si>
     <t>DIAZ</t>
   </si>
   <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>LEAL</t>
+  </si>
+  <si>
     <t>TINOCO</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
     <t>JERONIMO</t>
   </si>
   <si>
@@ -275,24 +383,96 @@
     <t>VENTURA</t>
   </si>
   <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>MIXCOA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>ALAMILLO</t>
   </si>
   <si>
-    <t>LOPEZ</t>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>MELO</t>
+  </si>
+  <si>
+    <t>TEPEPA</t>
+  </si>
+  <si>
+    <t>VICTORIANO</t>
   </si>
   <si>
     <t>YOPIHUA</t>
   </si>
   <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>LUIS YAEL</t>
+  </si>
+  <si>
     <t>VICTOR HUGO</t>
   </si>
   <si>
     <t>DINA BERENICE</t>
   </si>
   <si>
+    <t>VANESA</t>
+  </si>
+  <si>
+    <t>SARAHI</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
     <t>ANGELES NAHOMI</t>
   </si>
   <si>
+    <t>ADRIANA ARELY</t>
+  </si>
+  <si>
+    <t>AISHA NAOMI</t>
+  </si>
+  <si>
+    <t>ARANTXA</t>
+  </si>
+  <si>
+    <t>MARIA YAZMIN</t>
+  </si>
+  <si>
+    <t>JAEL SAMAI</t>
+  </si>
+  <si>
+    <t>LIZBET</t>
+  </si>
+  <si>
     <t>XIMENA</t>
   </si>
   <si>
@@ -302,244 +482,64 @@
     <t>BLANCA EULALIA</t>
   </si>
   <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>DANIELA RUBI</t>
+  </si>
+  <si>
+    <t>CRISTIAN ARTURO</t>
+  </si>
+  <si>
+    <t>VANNIA GISELLE</t>
+  </si>
+  <si>
+    <t>LUZ ESTRELLA</t>
+  </si>
+  <si>
     <t>ABIGAIL</t>
   </si>
   <si>
     <t>PAOLA GONETSY</t>
   </si>
   <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>IDETH JOSELYN</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>ESTHER ARISBETH</t>
+  </si>
+  <si>
+    <t>JAROMI YAJAIRA</t>
+  </si>
+  <si>
+    <t>EDGAR RAMSES</t>
+  </si>
+  <si>
+    <t>BERENICE</t>
+  </si>
+  <si>
+    <t>IRIS VIANNEY</t>
+  </si>
+  <si>
+    <t>MONSERRATH YARETZY</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>ELELYN IVETH</t>
+  </si>
+  <si>
+    <t>MARIAN</t>
+  </si>
+  <si>
     <t>PAOLA JAZMIN</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>BUSTOS</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DEMUNER</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>LOBATO</t>
-  </si>
-  <si>
-    <t>MATA</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>NAMORADO</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SANDRIA</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>LEAL</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>MIXCOA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>MELO</t>
-  </si>
-  <si>
-    <t>TEPEPA</t>
-  </si>
-  <si>
-    <t>VICTORIANO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>LUIS YAEL</t>
-  </si>
-  <si>
-    <t>VANESA</t>
-  </si>
-  <si>
-    <t>SARAHI</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>ADRIANA ARELY</t>
-  </si>
-  <si>
-    <t>AISHA NAOMI</t>
-  </si>
-  <si>
-    <t>ARANTXA</t>
-  </si>
-  <si>
-    <t>MARIA YAZMIN</t>
-  </si>
-  <si>
-    <t>JAEL SAMAI</t>
-  </si>
-  <si>
-    <t>LIZBET</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>DANIELA RUBI</t>
-  </si>
-  <si>
-    <t>CRISTIAN ARTURO</t>
-  </si>
-  <si>
-    <t>VANNIA GISELLE</t>
-  </si>
-  <si>
-    <t>LUZ ESTRELLA</t>
-  </si>
-  <si>
-    <t>SUEMI</t>
-  </si>
-  <si>
-    <t>IDETH JOSELYN</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>ESTHER ARISBETH</t>
-  </si>
-  <si>
-    <t>JAROMI YAJAIRA</t>
-  </si>
-  <si>
-    <t>EDGAR RAMSES</t>
-  </si>
-  <si>
-    <t>BERENICE</t>
-  </si>
-  <si>
-    <t>IRIS VIANNEY</t>
-  </si>
-  <si>
-    <t>MONSERRATH YARETZY</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>ELELYN IVETH</t>
-  </si>
-  <si>
-    <t>MARIAN</t>
   </si>
   <si>
     <t>AYARI</t>
@@ -1079,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R4">
         <v>9</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T4">
         <v>10</v>
@@ -1156,13 +1156,13 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R5">
         <v>5</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>8</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="Y5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1203,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1221,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -1233,13 +1233,13 @@
         <v>6</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1251,13 +1251,13 @@
         <v>6</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X6">
         <v>6</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1310,13 +1310,13 @@
         <v>10</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R7">
         <v>8</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>10</v>
@@ -1375,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>8</v>
@@ -1387,13 +1387,13 @@
         <v>7</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R8">
         <v>5</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -1411,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="Y8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1464,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R9">
         <v>10</v>
       </c>
       <c r="S9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T9">
         <v>10</v>
@@ -1488,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1541,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T10">
         <v>8</v>
@@ -1606,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>9</v>
@@ -1618,13 +1618,13 @@
         <v>8</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T11">
         <v>7</v>
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="Y11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1695,13 +1695,13 @@
         <v>9</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R12">
         <v>10</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T12">
         <v>10</v>
@@ -1772,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R13">
         <v>6</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T13">
         <v>6</v>
@@ -1790,13 +1790,13 @@
         <v>6</v>
       </c>
       <c r="W13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X13">
         <v>6</v>
       </c>
       <c r="Y13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1849,13 +1849,13 @@
         <v>9</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R14">
         <v>10</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T14">
         <v>10</v>
@@ -1926,13 +1926,13 @@
         <v>8</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R15">
         <v>10</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -2003,13 +2003,13 @@
         <v>9</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R16">
         <v>10</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T16">
         <v>10</v>
@@ -2080,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R17">
         <v>5</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T17">
         <v>9</v>
@@ -2127,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2145,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>5</v>
@@ -2157,13 +2157,13 @@
         <v>5</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>5</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T18">
         <v>5</v>
@@ -2175,13 +2175,13 @@
         <v>5</v>
       </c>
       <c r="W18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X18">
         <v>5</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2204,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2222,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -2234,13 +2234,13 @@
         <v>5</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>5</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>5</v>
@@ -2252,13 +2252,13 @@
         <v>5</v>
       </c>
       <c r="W19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X19">
         <v>5</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2281,7 +2281,7 @@
         <v>5</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -2299,7 +2299,7 @@
         <v>5</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>6</v>
@@ -2311,13 +2311,13 @@
         <v>7</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>5</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T20">
         <v>6</v>
@@ -2329,13 +2329,13 @@
         <v>6</v>
       </c>
       <c r="W20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X20">
         <v>5</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2388,13 +2388,13 @@
         <v>10</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R21">
         <v>10</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T21">
         <v>10</v>
@@ -2465,13 +2465,13 @@
         <v>9</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>8</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T22">
         <v>10</v>
@@ -2542,13 +2542,13 @@
         <v>6</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>8</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T23">
         <v>6</v>
@@ -2560,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="W23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X23">
         <v>8</v>
@@ -2619,13 +2619,13 @@
         <v>5</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R24">
         <v>5</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T24">
         <v>5</v>
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="W24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X24">
         <v>5</v>
@@ -2696,13 +2696,13 @@
         <v>6</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <v>5</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T25">
         <v>5</v>
@@ -2761,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>5</v>
@@ -2773,13 +2773,13 @@
         <v>5</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R26">
         <v>5</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T26">
         <v>5</v>
@@ -2791,13 +2791,13 @@
         <v>5</v>
       </c>
       <c r="W26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <v>5</v>
       </c>
       <c r="Y26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2838,7 +2838,7 @@
         <v>5</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N27">
         <v>5</v>
@@ -2850,13 +2850,13 @@
         <v>5</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R27">
         <v>5</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T27">
         <v>5</v>
@@ -2868,13 +2868,13 @@
         <v>5</v>
       </c>
       <c r="W27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X27">
         <v>5</v>
       </c>
       <c r="Y27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2927,13 +2927,13 @@
         <v>5</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R28">
         <v>5</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T28">
         <v>6</v>
@@ -2945,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="W28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X28">
         <v>5</v>
@@ -3004,13 +3004,13 @@
         <v>8</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R29">
         <v>5</v>
       </c>
       <c r="S29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T29">
         <v>6</v>
@@ -3022,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="W29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X29">
         <v>6</v>
@@ -3081,13 +3081,13 @@
         <v>6</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R30">
         <v>6</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T30">
         <v>6</v>
@@ -3099,7 +3099,7 @@
         <v>6</v>
       </c>
       <c r="W30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X30">
         <v>6</v>
@@ -3158,13 +3158,13 @@
         <v>6</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R31">
         <v>7</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T31">
         <v>7</v>
@@ -3235,13 +3235,13 @@
         <v>6</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R32">
         <v>8</v>
       </c>
       <c r="S32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T32">
         <v>8</v>
@@ -3312,13 +3312,13 @@
         <v>8</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R33">
         <v>7</v>
       </c>
       <c r="S33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T33">
         <v>8</v>
@@ -3389,13 +3389,13 @@
         <v>8</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R34">
         <v>7</v>
       </c>
       <c r="S34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T34">
         <v>10</v>
@@ -3466,13 +3466,13 @@
         <v>6</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R35">
         <v>7</v>
       </c>
       <c r="S35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T35">
         <v>9</v>
@@ -3543,13 +3543,13 @@
         <v>8</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R36">
         <v>7</v>
       </c>
       <c r="S36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T36">
         <v>8</v>
@@ -3620,13 +3620,13 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R37">
         <v>5</v>
       </c>
       <c r="S37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T37">
         <v>5</v>
@@ -3697,13 +3697,13 @@
         <v>6</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R38">
         <v>7</v>
       </c>
       <c r="S38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T38">
         <v>5</v>
@@ -3774,13 +3774,13 @@
         <v>7</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R39">
         <v>5</v>
       </c>
       <c r="S39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T39">
         <v>6</v>
@@ -3851,13 +3851,13 @@
         <v>6</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R40">
         <v>8</v>
       </c>
       <c r="S40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T40">
         <v>8</v>
@@ -3869,7 +3869,7 @@
         <v>7</v>
       </c>
       <c r="W40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X40">
         <v>7</v>
@@ -3898,7 +3898,7 @@
         <v>5</v>
       </c>
       <c r="G41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -3916,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="M41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N41">
         <v>5</v>
@@ -3928,13 +3928,13 @@
         <v>5</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R41">
         <v>5</v>
       </c>
       <c r="S41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T41">
         <v>5</v>
@@ -3946,13 +3946,13 @@
         <v>5</v>
       </c>
       <c r="W41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X41">
         <v>5</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4005,13 +4005,13 @@
         <v>6</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R42">
         <v>5</v>
       </c>
       <c r="S42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T42">
         <v>5</v>
@@ -4023,7 +4023,7 @@
         <v>6</v>
       </c>
       <c r="W42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X42">
         <v>5</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -4193,30 +4193,30 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>76.92</v>
+        <v>82.05</v>
       </c>
       <c r="G5">
-        <v>10.26</v>
+        <v>17.95</v>
       </c>
       <c r="H5">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>23.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -4225,19 +4225,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>82.05</v>
+        <v>84.62</v>
       </c>
       <c r="G6">
-        <v>17.95</v>
+        <v>15.38</v>
       </c>
       <c r="H6">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4285,7 +4285,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4313,186 +4313,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920162</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920166</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920169</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920175</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920185</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4531,166 +4351,166 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920157</v>
+        <v>20330051920368</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920158</v>
+        <v>20330051920156</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920162</v>
+        <v>20330051920157</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920166</v>
+        <v>20330051920158</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920168</v>
+        <v>20330051920369</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920169</v>
+        <v>20330051920160</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920175</v>
+        <v>20330051920161</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920176</v>
+        <v>20330051920162</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920185</v>
+        <v>20330051920163</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920368</v>
+        <v>20330051920164</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
         <v>146</v>
@@ -4701,13 +4521,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920156</v>
+        <v>20330051920370</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
         <v>147</v>
@@ -4718,13 +4538,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920369</v>
+        <v>20330051920372</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>148</v>
@@ -4735,13 +4555,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920160</v>
+        <v>20330051920165</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>149</v>
@@ -4752,13 +4572,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920161</v>
+        <v>20330051920167</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
         <v>150</v>
@@ -4769,13 +4589,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920163</v>
+        <v>20330051920166</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
         <v>151</v>
@@ -4786,13 +4606,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920164</v>
+        <v>20330051920168</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
         <v>152</v>
@@ -4803,13 +4623,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920370</v>
+        <v>20330051920169</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>153</v>
@@ -4820,13 +4640,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920372</v>
+        <v>20330051920371</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
         <v>154</v>
@@ -4837,13 +4657,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920165</v>
+        <v>20330051920171</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
         <v>155</v>
@@ -4854,13 +4674,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920167</v>
+        <v>20330051920172</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>156</v>
@@ -4871,13 +4691,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920371</v>
+        <v>20330051920173</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>157</v>
@@ -4888,13 +4708,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920171</v>
+        <v>20330051920174</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
         <v>158</v>
@@ -4905,13 +4725,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920172</v>
+        <v>20330051920175</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
         <v>159</v>
@@ -4922,13 +4742,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920173</v>
+        <v>20330051920176</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>160</v>
@@ -4939,13 +4759,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920174</v>
+        <v>20330051920306</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>161</v>
@@ -4956,13 +4776,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920306</v>
+        <v>20330051920177</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>162</v>
@@ -4973,13 +4793,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920177</v>
+        <v>20330051920178</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>163</v>
@@ -4990,13 +4810,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920178</v>
+        <v>20330051920179</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
         <v>164</v>
@@ -5007,13 +4827,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920179</v>
+        <v>20330051920180</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>165</v>
@@ -5024,13 +4844,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920180</v>
+        <v>20330051920373</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>166</v>
@@ -5041,13 +4861,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920373</v>
+        <v>20330051920254</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>167</v>
@@ -5058,13 +4878,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920254</v>
+        <v>20330051920181</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
         <v>168</v>
@@ -5075,13 +4895,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920181</v>
+        <v>20330051920393</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
         <v>169</v>
@@ -5092,13 +4912,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920393</v>
+        <v>20330051920182</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
         <v>170</v>
@@ -5109,13 +4929,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920182</v>
+        <v>20330051920183</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
         <v>171</v>
@@ -5126,13 +4946,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920183</v>
+        <v>20330051920184</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
         <v>172</v>
@@ -5143,13 +4963,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20330051920184</v>
+        <v>20330051920185</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
         <v>173</v>
@@ -5163,10 +4983,10 @@
         <v>20330051920186</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
         <v>174</v>
@@ -5180,10 +5000,10 @@
         <v>20330051920388</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
         <v>175</v>
@@ -5199,7 +5019,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5234,22 +5054,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920174</v>
+        <v>20330051920162</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5257,22 +5077,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920174</v>
+        <v>20330051920162</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5280,22 +5100,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920183</v>
+        <v>20330051920174</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5303,22 +5123,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920183</v>
+        <v>20330051920174</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5326,16 +5146,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920306</v>
+        <v>20330051920183</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -5349,16 +5169,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920178</v>
+        <v>20330051920183</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -5372,22 +5192,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920180</v>
+        <v>20330051920306</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5395,16 +5215,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920373</v>
+        <v>20330051920178</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -5418,24 +5238,70 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <v>20330051920180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920373</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>20330051920184</v>
       </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2ARHM - Estadisticos 20202.xlsx
+++ b/grupos/2ARHM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="176">
   <si>
     <t>Materia</t>
   </si>
@@ -203,10 +203,10 @@
     <t>Castro Vasquez Julieta</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
     <t>Mendoza Velazquez Laura Elena</t>
-  </si>
-  <si>
-    <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
     <t>González Altamirano Victorino Juventino</t>
@@ -4097,19 +4097,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="G2">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
       <c r="H2">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -4129,19 +4129,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="G3">
-        <v>35.9</v>
+        <v>30.77</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -4161,19 +4161,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>66.67</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G4">
-        <v>33.33</v>
+        <v>28.21</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>17.95</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4257,19 +4257,19 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>84.62</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5019,7 +5019,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5049,27 +5049,27 @@
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920162</v>
+        <v>20330051920168</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5077,22 +5077,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920162</v>
+        <v>20330051920168</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5100,22 +5100,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920174</v>
+        <v>20330051920177</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5123,22 +5123,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920174</v>
+        <v>20330051920177</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5161,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5204,10 +5204,10 @@
         <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5238,70 +5238,24 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920180</v>
+        <v>20330051920373</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920373</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12">
         <v>5</v>
       </c>
     </row>
